--- a/2016년 재료비 6월/논술2 교재비.xlsx
+++ b/2016년 재료비 6월/논술2 교재비.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="49">
   <si>
     <t>*주야</t>
   </si>
@@ -276,59 +276,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -629,7 +626,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -641,8 +638,8 @@
     <col min="5" max="5" width="10.625" style="11" customWidth="1"/>
     <col min="6" max="6" width="16.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="11" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="8" max="9" width="9" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -687,7 +684,7 @@
       <c r="F2" s="15">
         <v>15000</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -730,7 +727,7 @@
       <c r="F4" s="1">
         <v>15000</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -813,7 +810,7 @@
       <c r="F8" s="15">
         <v>15000</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -996,7 +993,7 @@
       <c r="F17" s="15">
         <v>15000</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1019,7 +1016,7 @@
       <c r="F18" s="15">
         <v>15000</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1041,6 +1038,9 @@
       </c>
       <c r="F19" s="15">
         <v>15000</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -1109,8 +1109,8 @@
     <col min="1" max="5" width="10.625" style="11" customWidth="1"/>
     <col min="6" max="6" width="10.625" style="2" customWidth="1"/>
     <col min="7" max="8" width="10.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="9" max="10" width="9" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">

--- a/2016년 재료비 6월/논술2 교재비.xlsx
+++ b/2016년 재료비 6월/논술2 교재비.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="555" windowWidth="20175" windowHeight="13500"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="50">
   <si>
     <t>*주야</t>
   </si>
@@ -164,6 +164,10 @@
   </si>
   <si>
     <t>비고</t>
+  </si>
+  <si>
+    <t>자유수강대상자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -276,56 +280,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -626,23 +627,23 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10.625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="7.25" style="11" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="11" customWidth="1"/>
-    <col min="8" max="9" width="9" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="9" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:7" ht="16.5" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -665,7 +666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:7" ht="16.5" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
@@ -681,14 +682,14 @@
       <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="2">
+        <v>15000</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:7" ht="16.5" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
@@ -704,11 +705,11 @@
       <c r="E3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="15">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="F3" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
@@ -724,14 +725,14 @@
       <c r="E4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1">
-        <v>15000</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="11">
+        <v>15000</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:7" ht="16.5" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
@@ -747,11 +748,11 @@
       <c r="E5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="15">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="F5" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
@@ -767,11 +768,11 @@
       <c r="E6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="15">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="F6" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
@@ -787,11 +788,11 @@
       <c r="E7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="15">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="F7" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -807,14 +808,14 @@
       <c r="E8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="F8" s="2">
+        <v>15000</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:7" ht="16.5" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
@@ -830,11 +831,11 @@
       <c r="E9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="15">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="F9" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
@@ -850,11 +851,11 @@
       <c r="E10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="15">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="F10" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
@@ -870,11 +871,11 @@
       <c r="E11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="15">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="F11" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>7</v>
       </c>
@@ -890,11 +891,11 @@
       <c r="E12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="15">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="F12" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>7</v>
       </c>
@@ -910,11 +911,11 @@
       <c r="E13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="15">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="F13" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>7</v>
       </c>
@@ -930,11 +931,11 @@
       <c r="E14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="15">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="F14" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>7</v>
       </c>
@@ -950,11 +951,11 @@
       <c r="E15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="15">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="F15" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>7</v>
       </c>
@@ -970,11 +971,11 @@
       <c r="E16" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="15">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="F16" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" customHeight="1">
       <c r="A17" s="11" t="s">
         <v>7</v>
       </c>
@@ -990,14 +991,14 @@
       <c r="E17" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G17" s="11" t="s">
+      <c r="F17" s="2">
+        <v>15000</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:7" ht="16.5" customHeight="1">
       <c r="A18" s="11" t="s">
         <v>7</v>
       </c>
@@ -1013,14 +1014,14 @@
       <c r="E18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G18" s="11" t="s">
+      <c r="F18" s="2">
+        <v>15000</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:7" ht="16.5" customHeight="1">
       <c r="A19" s="11" t="s">
         <v>7</v>
       </c>
@@ -1036,14 +1037,14 @@
       <c r="E19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="2">
         <v>15000</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" customHeight="1">
       <c r="A20" s="11" t="s">
         <v>7</v>
       </c>
@@ -1059,11 +1060,11 @@
       <c r="E20" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="15">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="F20" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" customHeight="1">
       <c r="A21" s="11" t="s">
         <v>7</v>
       </c>
@@ -1079,16 +1080,11 @@
       <c r="E21" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="15">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="F22" s="1">
-        <f>SUM(F2:F21)</f>
-        <v>300000</v>
-      </c>
-    </row>
+      <c r="F21" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1109,21 +1105,21 @@
     <col min="1" max="5" width="10.625" style="11" customWidth="1"/>
     <col min="6" max="6" width="10.625" style="2" customWidth="1"/>
     <col min="7" max="8" width="10.625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="9" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="5" t="s">
